--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/3 ANALISIS/2 Identificacion de Riesgos a Respuestas de Responsables.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/3 ANALISIS/2 Identificacion de Riesgos a Respuestas de Responsables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\3 ANALISIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\3 ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E150C5E1-D2D3-4873-AE03-520EBCC51A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BBA549-AB1B-451D-BD4C-7CE11CE5C997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -361,6 +361,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,7 +756,7 @@
   <dimension ref="A2:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,24 +811,30 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="25" t="s">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>20</v>
       </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -827,10 +843,17 @@
       <c r="J11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
@@ -1046,8 +1069,12 @@
       <c r="B85" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="B18 B15">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Ref. PT">
